--- a/data-raw/BOFEK2012_profielen_versie2_1.xlsx
+++ b/data-raw/BOFEK2012_profielen_versie2_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NLCIMM\Documents\myR_on_GitHub\packages\helptabel\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fa01722dbc575f3/Documenten/myR_on_GitHub/packages/hlptabel/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E7CEEE-B061-4D8F-A449-5BF7618CE342}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{27E7CEEE-B061-4D8F-A449-5BF7618CE342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321D944D-D200-40EE-AFC3-789DFDFA141E}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="1245" windowWidth="20100" windowHeight="10020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1929,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF1043"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
